--- a/scheduling_providers_updated_subdiv.xlsx
+++ b/scheduling_providers_updated_subdiv.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m296398\Desktop\no_show_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887244F2-AF71-47D2-A1C5-2BD391AC5DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F384994F-8BA1-4958-96D0-F2EFD70C0B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19695" yWindow="765" windowWidth="15495" windowHeight="17745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="2355" windowWidth="13380" windowHeight="24285" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="all" sheetId="1" r:id="rId1"/>
+    <sheet name="saturdays" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="183">
   <si>
     <t>UniqueValues.appt.schdlng.prvdr</t>
   </si>
@@ -527,13 +528,55 @@
   </si>
   <si>
     <t>orgs/schools</t>
+  </si>
+  <si>
+    <t>Diagnostic Specialties</t>
+  </si>
+  <si>
+    <t>Primary Care</t>
+  </si>
+  <si>
+    <t>Medical Specialties</t>
+  </si>
+  <si>
+    <t>Pediatric Medicine</t>
+  </si>
+  <si>
+    <t>Eye &amp; Vision Care</t>
+  </si>
+  <si>
+    <t>Psychiatry &amp; Behavioral Health</t>
+  </si>
+  <si>
+    <t>Radiation Oncology</t>
+  </si>
+  <si>
+    <t>Women's Health</t>
+  </si>
+  <si>
+    <t>provider</t>
+  </si>
+  <si>
+    <t>specialty</t>
+  </si>
+  <si>
+    <t>mayo</t>
+  </si>
+  <si>
+    <t>creighton</t>
+  </si>
+  <si>
+    <t>u of a</t>
+  </si>
+  <si>
+    <t>total appts (2023-24)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -573,8 +616,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -629,8 +684,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF700061"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -647,18 +708,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0C1F30"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF0C1F30"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -669,6 +740,30 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -967,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,10 +1092,10 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1011,10 +1106,10 @@
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1025,10 +1120,10 @@
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1039,10 +1134,10 @@
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1053,10 +1148,10 @@
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1067,10 +1162,10 @@
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1081,306 +1176,306 @@
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>129</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" t="s">
         <v>97</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="13" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1657,82 +1752,82 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="9" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1873,146 +1968,146 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="8" t="s">
+      <c r="A103" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="12" t="s">
+      <c r="A108" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B108" s="12" t="s">
+      <c r="B108" s="11" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="13" t="s">
+      <c r="A109" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="s">
+      <c r="A110" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="15" t="s">
+      <c r="A113" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B113" s="15" t="s">
+      <c r="B113" s="14" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="9" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="10" t="s">
+      <c r="A115" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="9" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2105,82 +2200,82 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="16" t="s">
+      <c r="A127" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B127" s="16" t="s">
+      <c r="B127" s="15" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="7" t="s">
+      <c r="A128" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="6" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="7" t="s">
+      <c r="A129" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="6" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="7" t="s">
+      <c r="A130" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B130" s="6" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="8" t="s">
+      <c r="A131" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="7" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="9" t="s">
+      <c r="A132" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="8" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="9" t="s">
+      <c r="A133" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="8" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="10" t="s">
+      <c r="A134" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="9" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="10" t="s">
+      <c r="A135" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="9" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="10" t="s">
+      <c r="A136" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="9" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2193,6 +2288,365 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251FA781-AAA7-4E28-AF09-E97EB90EB4C7}">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="17">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="17">
+        <v>166</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="17">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="19">
+        <v>70</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="21">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{11372f5f-8e19-4efb-8afe-8eac20a980c4}" enabled="1" method="Standard" siteId="{a25fff9c-3f63-4fb2-9a8a-d9bdd0321f9a}" contentBits="0" removed="0"/>
